--- a/文档/文档/道具表.xlsx
+++ b/文档/文档/道具表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,236 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1：可以使用
+2：可以出售
+3：可以出售并使用
+0：不可出售不可使用</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1普通
+2精致
+3稀有
+4史诗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>恢复体力值：(stamina,50)
+恢复经验值：(exp,50)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+  <si>
+    <t>道具id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具图片id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具品质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用效果2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否赠送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精灵的书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块看起来没什么用的布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珍珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一捆木头，用作生火或许是不错的原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一块看起来没什么用的石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小精灵施法使用的魔法书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔炼时最常用的材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海洋里生产而出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_10002</t>
+  </si>
+  <si>
+    <t>tools_10003</t>
+  </si>
+  <si>
+    <t>tools_10004</t>
+  </si>
+  <si>
+    <t>tools_10005</t>
+  </si>
+  <si>
+    <t>tools_110001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_110002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_210001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_110003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_10006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_110004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tools_210002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,13 +246,51 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -44,19 +305,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +374,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +409,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +617,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>10</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>50</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>